--- a/wynikiTabu.xlsx
+++ b/wynikiTabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Radek\source\repos\PEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B08B3-5B0C-4A3E-A989-DA258A201DB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF38FE1-749B-4CD9-BA48-F620F32CE60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EBB0156E-4CE0-4697-B5EF-E4141655CAF4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="76">
   <si>
     <t>data17</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>4 i 8</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>false na true</t>
+  </si>
+  <si>
+    <t>z czyszczeniem</t>
   </si>
 </sst>
 </file>
@@ -642,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80723DF-DD26-49EC-BF58-7715F7A7A387}">
-  <dimension ref="B3:V35"/>
+  <dimension ref="A3:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,10 +1070,10 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>5000</v>
@@ -1109,7 +1118,10 @@
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
       <c r="B17" s="1">
         <v>39</v>
       </c>
@@ -1148,7 +1160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
       <c r="B18" s="1">
         <v>1286</v>
       </c>
@@ -1186,8 +1201,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1473</v>
       </c>
@@ -1228,8 +1249,11 @@
       <c r="N19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1530</v>
       </c>
@@ -1268,7 +1292,7 @@
         <v>1.30718954248366E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>5620</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1613</v>
       </c>
@@ -1346,7 +1370,7 @@
         <v>1.2399256044637321E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>14422</v>
       </c>
@@ -1385,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>6905</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>2.7081824764663288E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1608</v>
       </c>
@@ -1463,7 +1487,7 @@
         <v>3.1716417910447763E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>1839</v>
       </c>
@@ -1502,7 +1526,7 @@
         <v>1.9575856443719411E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>38673</v>
       </c>
@@ -1541,7 +1565,7 @@
         <v>3.7235280428205724E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>1950</v>
       </c>
@@ -1580,7 +1604,7 @@
         <v>1.7435897435897435E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>36230</v>
       </c>
@@ -1619,7 +1643,7 @@
         <v>5.5202870549268562E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>2755</v>
       </c>
@@ -1657,8 +1681,11 @@
         <f t="shared" si="1"/>
         <v>0.13284936479128856</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1326</v>
       </c>
@@ -1696,8 +1723,11 @@
         <f t="shared" si="1"/>
         <v>8.5972850678733032E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>1163</v>
       </c>
@@ -1735,8 +1765,11 @@
         <f t="shared" si="1"/>
         <v>0.14187446259673259</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>2465</v>
       </c>
@@ -1774,8 +1807,11 @@
         <f t="shared" si="1"/>
         <v>1.2576064908722109E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>2720</v>
       </c>
@@ -1813,8 +1849,11 @@
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>1776</v>
       </c>
